--- a/biology/Biologie cellulaire et moléculaire/Hypoprothrombinémie/Hypoprothrombinémie.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Hypoprothrombinémie/Hypoprothrombinémie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hypoprothrombin%C3%A9mie</t>
+          <t>Hypoprothrombinémie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hypoprothrombinémie est l'insuffisance de prothrombine dans le plasma[1]. Elle est rencontrée lors des ictères choléstasiques extrahépatiques, où on aura un test de Koller positif.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hypoprothrombinémie est l'insuffisance de prothrombine dans le plasma. Elle est rencontrée lors des ictères choléstasiques extrahépatiques, où on aura un test de Koller positif.
 Elle corrigée par l'administration parentérale de la vitamine K.
 </t>
         </is>
